--- a/resultats_tests.xlsx
+++ b/resultats_tests.xlsx
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +643,93 @@
         <v>1.11</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>InsultFilter</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>InsultFilter</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>InsultFilter</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PyRO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Multi-node</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
